--- a/test_data/Test Data.xlsx
+++ b/test_data/Test Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -37,16 +37,13 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>Should Pass</t>
-  </si>
-  <si>
-    <t/>
+    <t>Pass</t>
   </si>
   <si>
     <t>locked_out_user</t>
   </si>
   <si>
-    <t>Should Fail</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>problem_user</t>
@@ -120,15 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -445,11 +439,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="63.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -479,50 +473,38 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -530,48 +512,36 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -579,29 +549,21 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
@@ -609,14 +571,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/Test Data.xlsx
+++ b/test_data/Test Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="TestCases"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>

--- a/test_data/Test Data.xlsx
+++ b/test_data/Test Data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+  <si>
+    <t>Test Case No.</t>
+  </si>
   <si>
     <t>Username</t>
   </si>
@@ -31,6 +34,9 @@
     <t xml:space="preserve">Message </t>
   </si>
   <si>
+    <t>TC_1</t>
+  </si>
+  <si>
     <t>standard_user</t>
   </si>
   <si>
@@ -40,34 +46,58 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>TC_2</t>
+  </si>
+  <si>
     <t>locked_out_user</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>TC_3</t>
+  </si>
+  <si>
     <t>problem_user</t>
   </si>
   <si>
     <t>vasca</t>
   </si>
   <si>
+    <t>TC_4</t>
+  </si>
+  <si>
     <t>performance_glitch_user</t>
   </si>
   <si>
+    <t>TC_5</t>
+  </si>
+  <si>
     <t>error_user</t>
   </si>
   <si>
     <t>vdvsv</t>
   </si>
   <si>
+    <t>TC_6</t>
+  </si>
+  <si>
     <t>visual_user</t>
   </si>
   <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
     <t>vcacsa</t>
   </si>
   <si>
     <t>acca</t>
+  </si>
+  <si>
+    <t>TC_9</t>
   </si>
 </sst>
 </file>
@@ -119,6 +149,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -127,9 +160,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,148 +463,179 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="63.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/Test Data.xlsx
+++ b/test_data/Test Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Expected behaviour</t>
-  </si>
-  <si>
-    <t>Actual behaviour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message </t>
   </si>
   <si>
     <t>TC_1</t>
@@ -147,12 +141,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -463,18 +460,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -490,152 +485,128 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
